--- a/data/Data extraction sheet.xlsx
+++ b/data/Data extraction sheet.xlsx
@@ -986,7 +986,7 @@
     <t>Test and enhance security of factory technology/systems, to protect smart manufacturing systems from cyber and physical threats, enable better resource allocation, system coordination, and performance optimization</t>
   </si>
   <si>
-    <t>Decision Support and Optimization</t>
+    <t>Decision support and control for optimal behavior</t>
   </si>
   <si>
     <t>Cybersecurity</t>
